--- a/processed_data.xlsx
+++ b/processed_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X58"/>
+  <dimension ref="A1:Y58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,15 +542,20 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>Net_GW_Change</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>Actual Rainfall (mm)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Normal Rainfall (mm)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Departure (mm)</t>
         </is>
@@ -621,12 +626,15 @@
         <v>1</v>
       </c>
       <c r="V2" t="n">
+        <v>12</v>
+      </c>
+      <c r="W2" t="n">
         <v>332.3</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>284</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>48.3</v>
       </c>
     </row>
@@ -695,12 +703,15 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
+        <v>9</v>
+      </c>
+      <c r="W3" t="n">
         <v>313.2</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>275</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>38.2</v>
       </c>
     </row>
@@ -769,12 +780,15 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
+        <v>10</v>
+      </c>
+      <c r="W4" t="n">
         <v>327.75</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>279</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>48.75</v>
       </c>
     </row>
@@ -843,12 +857,15 @@
         <v>2</v>
       </c>
       <c r="V5" t="n">
+        <v>13</v>
+      </c>
+      <c r="W5" t="n">
         <v>345.5</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>287.5</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>58</v>
       </c>
     </row>
@@ -917,12 +934,15 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
+        <v>8</v>
+      </c>
+      <c r="W6" t="n">
         <v>349.2</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>285</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>64.2</v>
       </c>
     </row>
@@ -991,12 +1011,15 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
+        <v>8</v>
+      </c>
+      <c r="W7" t="n">
         <v>302.55</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>264</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>38.55</v>
       </c>
     </row>
@@ -1065,12 +1088,15 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>13</v>
+      </c>
+      <c r="W8" t="n">
         <v>337</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>282.5</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>54.5</v>
       </c>
     </row>
@@ -1139,12 +1165,15 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>10</v>
+      </c>
+      <c r="W9" t="n">
         <v>315.4</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>270</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>45.40000000000001</v>
       </c>
     </row>
@@ -1213,12 +1242,15 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
+        <v>18</v>
+      </c>
+      <c r="W10" t="n">
         <v>391.3</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>300</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
         <v>91.3</v>
       </c>
     </row>
@@ -1287,12 +1319,15 @@
         <v>1</v>
       </c>
       <c r="V11" t="n">
+        <v>8</v>
+      </c>
+      <c r="W11" t="n">
         <v>317.4</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>272</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>45.4</v>
       </c>
     </row>
@@ -1361,12 +1396,15 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
+        <v>10</v>
+      </c>
+      <c r="W12" t="n">
         <v>383.2</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>298.5</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>84.7</v>
       </c>
     </row>
@@ -1435,12 +1473,15 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
+        <v>6</v>
+      </c>
+      <c r="W13" t="n">
         <v>303.85</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>265.5</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>38.35</v>
       </c>
     </row>
@@ -1509,12 +1550,15 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
+        <v>5</v>
+      </c>
+      <c r="W14" t="n">
         <v>344.6</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>282</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>62.6</v>
       </c>
     </row>
@@ -1583,12 +1627,15 @@
         <v>2</v>
       </c>
       <c r="V15" t="n">
+        <v>6</v>
+      </c>
+      <c r="W15" t="n">
         <v>331.8</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>278</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>53.8</v>
       </c>
     </row>
@@ -1657,12 +1704,15 @@
         <v>1</v>
       </c>
       <c r="V16" t="n">
+        <v>7</v>
+      </c>
+      <c r="W16" t="n">
         <v>297.65</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>260</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>37.65</v>
       </c>
     </row>
@@ -1731,12 +1781,15 @@
         <v>1</v>
       </c>
       <c r="V17" t="n">
+        <v>15</v>
+      </c>
+      <c r="W17" t="n">
         <v>361.4</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>291.5</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
         <v>69.90000000000001</v>
       </c>
     </row>
@@ -1805,12 +1858,15 @@
         <v>1</v>
       </c>
       <c r="V18" t="n">
+        <v>51</v>
+      </c>
+      <c r="W18" t="n">
         <v>377.4</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>295</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Y18" t="n">
         <v>82.40000000000001</v>
       </c>
     </row>
@@ -1879,12 +1935,15 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>10</v>
+      </c>
+      <c r="W19" t="n">
         <v>387.45</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>304</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Y19" t="n">
         <v>83.44999999999999</v>
       </c>
     </row>
@@ -1953,12 +2012,15 @@
         <v>1</v>
       </c>
       <c r="V20" t="n">
+        <v>10</v>
+      </c>
+      <c r="W20" t="n">
         <v>398.8</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>307.5</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Y20" t="n">
         <v>91.3</v>
       </c>
     </row>
@@ -2027,12 +2089,15 @@
         <v>11</v>
       </c>
       <c r="V21" t="n">
+        <v>-10</v>
+      </c>
+      <c r="W21" t="n">
         <v>332.3</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>284</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Y21" t="n">
         <v>48.3</v>
       </c>
     </row>
@@ -2101,12 +2166,15 @@
         <v>11</v>
       </c>
       <c r="V22" t="n">
+        <v>-8</v>
+      </c>
+      <c r="W22" t="n">
         <v>313.2</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>275</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Y22" t="n">
         <v>38.2</v>
       </c>
     </row>
@@ -2175,12 +2243,15 @@
         <v>10</v>
       </c>
       <c r="V23" t="n">
+        <v>-10</v>
+      </c>
+      <c r="W23" t="n">
         <v>327.75</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>279</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Y23" t="n">
         <v>48.75</v>
       </c>
     </row>
@@ -2249,12 +2320,15 @@
         <v>14</v>
       </c>
       <c r="V24" t="n">
+        <v>-6</v>
+      </c>
+      <c r="W24" t="n">
         <v>345.5</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>287.5</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Y24" t="n">
         <v>58</v>
       </c>
     </row>
@@ -2323,12 +2397,15 @@
         <v>9</v>
       </c>
       <c r="V25" t="n">
+        <v>-9</v>
+      </c>
+      <c r="W25" t="n">
         <v>349.2</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>285</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
         <v>64.2</v>
       </c>
     </row>
@@ -2397,12 +2474,15 @@
         <v>8</v>
       </c>
       <c r="V26" t="n">
+        <v>-8</v>
+      </c>
+      <c r="W26" t="n">
         <v>302.55</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>264</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Y26" t="n">
         <v>38.55</v>
       </c>
     </row>
@@ -2471,12 +2551,15 @@
         <v>10</v>
       </c>
       <c r="V27" t="n">
+        <v>-10</v>
+      </c>
+      <c r="W27" t="n">
         <v>337</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>282.5</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
         <v>54.5</v>
       </c>
     </row>
@@ -2545,12 +2628,15 @@
         <v>9</v>
       </c>
       <c r="V28" t="n">
+        <v>-9</v>
+      </c>
+      <c r="W28" t="n">
         <v>315.4</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>270</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Y28" t="n">
         <v>45.40000000000001</v>
       </c>
     </row>
@@ -2619,12 +2705,15 @@
         <v>18</v>
       </c>
       <c r="V29" t="n">
+        <v>-18</v>
+      </c>
+      <c r="W29" t="n">
         <v>391.3</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>300</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Y29" t="n">
         <v>91.3</v>
       </c>
     </row>
@@ -2693,12 +2782,15 @@
         <v>3</v>
       </c>
       <c r="V30" t="n">
+        <v>4</v>
+      </c>
+      <c r="W30" t="n">
         <v>317.4</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>272</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Y30" t="n">
         <v>45.4</v>
       </c>
     </row>
@@ -2767,12 +2859,15 @@
         <v>12</v>
       </c>
       <c r="V31" t="n">
+        <v>-11</v>
+      </c>
+      <c r="W31" t="n">
         <v>383.2</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>298.5</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Y31" t="n">
         <v>84.7</v>
       </c>
     </row>
@@ -2841,12 +2936,15 @@
         <v>2</v>
       </c>
       <c r="V32" t="n">
+        <v>2</v>
+      </c>
+      <c r="W32" t="n">
         <v>303.85</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>265.5</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Y32" t="n">
         <v>38.35</v>
       </c>
     </row>
@@ -2915,12 +3013,15 @@
         <v>5</v>
       </c>
       <c r="V33" t="n">
+        <v>-5</v>
+      </c>
+      <c r="W33" t="n">
         <v>344.6</v>
       </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
         <v>282</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Y33" t="n">
         <v>62.6</v>
       </c>
     </row>
@@ -2989,12 +3090,15 @@
         <v>8</v>
       </c>
       <c r="V34" t="n">
+        <v>-6</v>
+      </c>
+      <c r="W34" t="n">
         <v>331.8</v>
       </c>
-      <c r="W34" t="n">
+      <c r="X34" t="n">
         <v>278</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Y34" t="n">
         <v>53.8</v>
       </c>
     </row>
@@ -3063,12 +3167,15 @@
         <v>7</v>
       </c>
       <c r="V35" t="n">
+        <v>-5</v>
+      </c>
+      <c r="W35" t="n">
         <v>297.65</v>
       </c>
-      <c r="W35" t="n">
+      <c r="X35" t="n">
         <v>260</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Y35" t="n">
         <v>37.65</v>
       </c>
     </row>
@@ -3137,12 +3244,15 @@
         <v>18</v>
       </c>
       <c r="V36" t="n">
+        <v>-18</v>
+      </c>
+      <c r="W36" t="n">
         <v>361.4</v>
       </c>
-      <c r="W36" t="n">
+      <c r="X36" t="n">
         <v>291.5</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Y36" t="n">
         <v>69.90000000000001</v>
       </c>
     </row>
@@ -3211,12 +3321,15 @@
         <v>52</v>
       </c>
       <c r="V37" t="n">
+        <v>-51</v>
+      </c>
+      <c r="W37" t="n">
         <v>377.4</v>
       </c>
-      <c r="W37" t="n">
+      <c r="X37" t="n">
         <v>295</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Y37" t="n">
         <v>82.40000000000001</v>
       </c>
     </row>
@@ -3285,12 +3398,15 @@
         <v>10</v>
       </c>
       <c r="V38" t="n">
+        <v>-10</v>
+      </c>
+      <c r="W38" t="n">
         <v>387.45</v>
       </c>
-      <c r="W38" t="n">
+      <c r="X38" t="n">
         <v>304</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Y38" t="n">
         <v>83.44999999999999</v>
       </c>
     </row>
@@ -3359,12 +3475,15 @@
         <v>12</v>
       </c>
       <c r="V39" t="n">
+        <v>-10</v>
+      </c>
+      <c r="W39" t="n">
         <v>398.8</v>
       </c>
-      <c r="W39" t="n">
+      <c r="X39" t="n">
         <v>307.5</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Y39" t="n">
         <v>91.3</v>
       </c>
     </row>
@@ -3433,12 +3552,15 @@
         <v>13</v>
       </c>
       <c r="V40" t="n">
+        <v>-11</v>
+      </c>
+      <c r="W40" t="n">
         <v>332.3</v>
       </c>
-      <c r="W40" t="n">
+      <c r="X40" t="n">
         <v>284</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Y40" t="n">
         <v>48.3</v>
       </c>
     </row>
@@ -3507,12 +3629,15 @@
         <v>9</v>
       </c>
       <c r="V41" t="n">
+        <v>-5</v>
+      </c>
+      <c r="W41" t="n">
         <v>313.2</v>
       </c>
-      <c r="W41" t="n">
+      <c r="X41" t="n">
         <v>275</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Y41" t="n">
         <v>38.2</v>
       </c>
     </row>
@@ -3581,12 +3706,15 @@
         <v>10</v>
       </c>
       <c r="V42" t="n">
+        <v>-10</v>
+      </c>
+      <c r="W42" t="n">
         <v>327.75</v>
       </c>
-      <c r="W42" t="n">
+      <c r="X42" t="n">
         <v>279</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Y42" t="n">
         <v>48.75</v>
       </c>
     </row>
@@ -3655,12 +3783,15 @@
         <v>19</v>
       </c>
       <c r="V43" t="n">
+        <v>-17</v>
+      </c>
+      <c r="W43" t="n">
         <v>345.5</v>
       </c>
-      <c r="W43" t="n">
+      <c r="X43" t="n">
         <v>287.5</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Y43" t="n">
         <v>58</v>
       </c>
     </row>
@@ -3729,12 +3860,15 @@
         <v>9</v>
       </c>
       <c r="V44" t="n">
+        <v>-9</v>
+      </c>
+      <c r="W44" t="n">
         <v>349.2</v>
       </c>
-      <c r="W44" t="n">
+      <c r="X44" t="n">
         <v>285</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Y44" t="n">
         <v>64.2</v>
       </c>
     </row>
@@ -3803,12 +3937,15 @@
         <v>7</v>
       </c>
       <c r="V45" t="n">
+        <v>-6</v>
+      </c>
+      <c r="W45" t="n">
         <v>302.55</v>
       </c>
-      <c r="W45" t="n">
+      <c r="X45" t="n">
         <v>264</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Y45" t="n">
         <v>38.55</v>
       </c>
     </row>
@@ -3877,12 +4014,15 @@
         <v>12</v>
       </c>
       <c r="V46" t="n">
+        <v>-12</v>
+      </c>
+      <c r="W46" t="n">
         <v>337</v>
       </c>
-      <c r="W46" t="n">
+      <c r="X46" t="n">
         <v>282.5</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Y46" t="n">
         <v>54.5</v>
       </c>
     </row>
@@ -3951,12 +4091,15 @@
         <v>7</v>
       </c>
       <c r="V47" t="n">
+        <v>-6</v>
+      </c>
+      <c r="W47" t="n">
         <v>315.4</v>
       </c>
-      <c r="W47" t="n">
+      <c r="X47" t="n">
         <v>270</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Y47" t="n">
         <v>45.40000000000001</v>
       </c>
     </row>
@@ -4025,12 +4168,15 @@
         <v>18</v>
       </c>
       <c r="V48" t="n">
+        <v>-17</v>
+      </c>
+      <c r="W48" t="n">
         <v>391.3</v>
       </c>
-      <c r="W48" t="n">
+      <c r="X48" t="n">
         <v>300</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Y48" t="n">
         <v>91.3</v>
       </c>
     </row>
@@ -4099,12 +4245,15 @@
         <v>8</v>
       </c>
       <c r="V49" t="n">
+        <v>-7</v>
+      </c>
+      <c r="W49" t="n">
         <v>317.4</v>
       </c>
-      <c r="W49" t="n">
+      <c r="X49" t="n">
         <v>272</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Y49" t="n">
         <v>45.4</v>
       </c>
     </row>
@@ -4173,12 +4322,15 @@
         <v>12</v>
       </c>
       <c r="V50" t="n">
+        <v>-11</v>
+      </c>
+      <c r="W50" t="n">
         <v>383.2</v>
       </c>
-      <c r="W50" t="n">
+      <c r="X50" t="n">
         <v>298.5</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Y50" t="n">
         <v>84.7</v>
       </c>
     </row>
@@ -4247,12 +4399,15 @@
         <v>6</v>
       </c>
       <c r="V51" t="n">
+        <v>-6</v>
+      </c>
+      <c r="W51" t="n">
         <v>303.85</v>
       </c>
-      <c r="W51" t="n">
+      <c r="X51" t="n">
         <v>265.5</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Y51" t="n">
         <v>38.35</v>
       </c>
     </row>
@@ -4321,12 +4476,15 @@
         <v>6</v>
       </c>
       <c r="V52" t="n">
+        <v>-6</v>
+      </c>
+      <c r="W52" t="n">
         <v>344.6</v>
       </c>
-      <c r="W52" t="n">
+      <c r="X52" t="n">
         <v>282</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Y52" t="n">
         <v>62.6</v>
       </c>
     </row>
@@ -4395,12 +4553,15 @@
         <v>8</v>
       </c>
       <c r="V53" t="n">
+        <v>-6</v>
+      </c>
+      <c r="W53" t="n">
         <v>331.8</v>
       </c>
-      <c r="W53" t="n">
+      <c r="X53" t="n">
         <v>278</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Y53" t="n">
         <v>53.8</v>
       </c>
     </row>
@@ -4469,12 +4630,15 @@
         <v>6</v>
       </c>
       <c r="V54" t="n">
+        <v>-3</v>
+      </c>
+      <c r="W54" t="n">
         <v>297.65</v>
       </c>
-      <c r="W54" t="n">
+      <c r="X54" t="n">
         <v>260</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Y54" t="n">
         <v>37.65</v>
       </c>
     </row>
@@ -4543,12 +4707,15 @@
         <v>15</v>
       </c>
       <c r="V55" t="n">
+        <v>-15</v>
+      </c>
+      <c r="W55" t="n">
         <v>361.4</v>
       </c>
-      <c r="W55" t="n">
+      <c r="X55" t="n">
         <v>291.5</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Y55" t="n">
         <v>69.90000000000001</v>
       </c>
     </row>
@@ -4617,12 +4784,15 @@
         <v>51</v>
       </c>
       <c r="V56" t="n">
+        <v>-48</v>
+      </c>
+      <c r="W56" t="n">
         <v>377.4</v>
       </c>
-      <c r="W56" t="n">
+      <c r="X56" t="n">
         <v>295</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Y56" t="n">
         <v>82.40000000000001</v>
       </c>
     </row>
@@ -4691,12 +4861,15 @@
         <v>8</v>
       </c>
       <c r="V57" t="n">
+        <v>2</v>
+      </c>
+      <c r="W57" t="n">
         <v>309.6</v>
       </c>
-      <c r="W57" t="n">
+      <c r="X57" t="n">
         <v>269</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Y57" t="n">
         <v>40.59999999999999</v>
       </c>
     </row>
@@ -4765,12 +4938,15 @@
         <v>8.710000000000001</v>
       </c>
       <c r="V58" t="n">
+        <v>-7.710000000000001</v>
+      </c>
+      <c r="W58" t="n">
         <v>387.45</v>
       </c>
-      <c r="W58" t="n">
+      <c r="X58" t="n">
         <v>304</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Y58" t="n">
         <v>83.44999999999999</v>
       </c>
     </row>
@@ -4785,7 +4961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4819,6 +4995,26 @@
           <t>Yearly_Category</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Yearly_Anomaly</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Yearly_Ratio</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Prev_Year_Rainfall</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Rainfall_3yr_Avg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -4836,6 +5032,16 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
+      <c r="F2" t="n">
+        <v>-247.0000000000001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7737888014123198</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>844.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -4853,6 +5059,18 @@
       <c r="E3" t="n">
         <v>2</v>
       </c>
+      <c r="F3" t="n">
+        <v>-161.6000000000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8520010911988176</v>
+      </c>
+      <c r="H3" t="n">
+        <v>844.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>887.5999999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -4870,6 +5088,18 @@
       <c r="E4" t="n">
         <v>2</v>
       </c>
+      <c r="F4" t="n">
+        <v>-150.0000000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8626247745890211</v>
+      </c>
+      <c r="H4" t="n">
+        <v>930.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>905.6999999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -4887,6 +5117,18 @@
       <c r="E5" t="n">
         <v>2</v>
       </c>
+      <c r="F5" t="n">
+        <v>9.899999999999864</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.009066755114326</v>
+      </c>
+      <c r="H5" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>991.3333333333334</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -4904,6 +5146,18 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
+      <c r="F6" t="n">
+        <v>-103.8000000000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9049363411948316</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1101.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1010.6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -4921,6 +5175,18 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
+      <c r="F7" t="n">
+        <v>-306.9000000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7189302983887691</v>
+      </c>
+      <c r="H7" t="n">
+        <v>988.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>958.3000000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -4938,6 +5204,18 @@
       <c r="E8" t="n">
         <v>2</v>
       </c>
+      <c r="F8" t="n">
+        <v>-195.8000000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.8143547851108867</v>
+      </c>
+      <c r="H8" t="n">
+        <v>785</v>
+      </c>
+      <c r="I8" t="n">
+        <v>877.3333333333334</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -4955,6 +5233,18 @@
       <c r="E9" t="n">
         <v>2</v>
       </c>
+      <c r="F9" t="n">
+        <v>-152.3000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.85559874034703</v>
+      </c>
+      <c r="H9" t="n">
+        <v>858.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>848.7666666666668</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -4972,6 +5262,18 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
+      <c r="F10" t="n">
+        <v>-13.20000000000005</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9874845834124909</v>
+      </c>
+      <c r="H10" t="n">
+        <v>902.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>934.2666666666668</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -4989,6 +5291,18 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
+      <c r="F11" t="n">
+        <v>-205.3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.7992961110636807</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1041.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>920.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -5006,6 +5320,18 @@
       <c r="E12" t="n">
         <v>1</v>
       </c>
+      <c r="F12" t="n">
+        <v>-271.6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.734480391685596</v>
+      </c>
+      <c r="H12" t="n">
+        <v>817.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>870.1333333333333</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -5022,6 +5348,18 @@
       </c>
       <c r="E13" t="n">
         <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-14.79999999999995</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.98553132285139</v>
+      </c>
+      <c r="H13" t="n">
+        <v>751.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>859</v>
       </c>
     </row>
   </sheetData>
